--- a/biology/Botanique/Aire_de_plein_air_d'Ojanko/Aire_de_plein_air_d'Ojanko.xlsx
+++ b/biology/Botanique/Aire_de_plein_air_d'Ojanko/Aire_de_plein_air_d'Ojanko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aire_de_plein_air_d%27Ojanko</t>
+          <t>Aire_de_plein_air_d'Ojanko</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de loisirs de plein air d'Ojanko (finnois : Ojangon ulkoilualue) est une aire de loisirs du quartier de Ojanko à  Vantaa en Finlande[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de loisirs de plein air d'Ojanko (finnois : Ojangon ulkoilualue) est une aire de loisirs du quartier de Ojanko à  Vantaa en Finlande,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aire_de_plein_air_d%27Ojanko</t>
+          <t>Aire_de_plein_air_d'Ojanko</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone de loisirs de plein air d'Ojanko est située au sud-est d'Hakunila. 
-La zone est couverte de sentiers sinueux de randonnée et d'équitation, ainsi que de pistes de ski en hiver[2],[1]. 
+La zone est couverte de sentiers sinueux de randonnée et d'équitation, ainsi que de pistes de ski en hiver,. 
 Les cavaliers sont servis par le centre équestre Poni-Haka. Les forêts de la zone de loisirs de plein air d'Ojanko sont une extension naturelle du parc sportif d'Hakunila. 
 La zone a accueilli plusieurs compétitions de ski et de course d'orientation. 
-Des championnats de ski ont été organisés dans la zone, par exemple, en 1997, 2008 et 2014[1].
+Des championnats de ski ont été organisés dans la zone, par exemple, en 1997, 2008 et 2014.
 La zone est un terrain vallonné, parsemé d'espaces forestièrs et de terres agricoles. 
 </t>
         </is>
